--- a/docs/tableaux/tableau médecins.xlsx
+++ b/docs/tableaux/tableau médecins.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05504CCC-16CC-4DAF-ABEA-C0C4EF567A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27263C93-CCBB-42EA-9F23-37E5C5EDD1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="524">
   <si>
     <t>Titre</t>
   </si>
@@ -1440,12 +1440,174 @@
   <si>
     <t>Jean-Pierre</t>
   </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>f10</t>
+  </si>
+  <si>
+    <t>f11</t>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
+    <t>f13</t>
+  </si>
+  <si>
+    <t>f14</t>
+  </si>
+  <si>
+    <t>f15</t>
+  </si>
+  <si>
+    <t>f16</t>
+  </si>
+  <si>
+    <t>f17</t>
+  </si>
+  <si>
+    <t>f18</t>
+  </si>
+  <si>
+    <t>f19</t>
+  </si>
+  <si>
+    <t>f20</t>
+  </si>
+  <si>
+    <t>f21</t>
+  </si>
+  <si>
+    <t>f22</t>
+  </si>
+  <si>
+    <t>f23</t>
+  </si>
+  <si>
+    <t>f24</t>
+  </si>
+  <si>
+    <t>f25</t>
+  </si>
+  <si>
+    <t>f26</t>
+  </si>
+  <si>
+    <t>f27</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
+  <si>
+    <t>test 6</t>
+  </si>
+  <si>
+    <t>test 7</t>
+  </si>
+  <si>
+    <t>test 8</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>test 10</t>
+  </si>
+  <si>
+    <t>test 11</t>
+  </si>
+  <si>
+    <t>test 12</t>
+  </si>
+  <si>
+    <t>test 13</t>
+  </si>
+  <si>
+    <t>test 14</t>
+  </si>
+  <si>
+    <t>test 15</t>
+  </si>
+  <si>
+    <t>test 16</t>
+  </si>
+  <si>
+    <t>test 17</t>
+  </si>
+  <si>
+    <t>test 18</t>
+  </si>
+  <si>
+    <t>test 19</t>
+  </si>
+  <si>
+    <t>test 20</t>
+  </si>
+  <si>
+    <t>test 21</t>
+  </si>
+  <si>
+    <t>test 22</t>
+  </si>
+  <si>
+    <t>test 23</t>
+  </si>
+  <si>
+    <t>test 24</t>
+  </si>
+  <si>
+    <t>test 25</t>
+  </si>
+  <si>
+    <t>test 26</t>
+  </si>
+  <si>
+    <t>test 27</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,6 +1627,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1831,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="D1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,12 +6343,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>493</v>
+      </c>
+      <c r="B24" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
